--- a/Code/Results/Cases/Case_3_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_159/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.84710169230718</v>
+        <v>13.61900842859776</v>
       </c>
       <c r="C2">
-        <v>7.372710901153906</v>
+        <v>10.44134461977274</v>
       </c>
       <c r="D2">
-        <v>6.66648092047782</v>
+        <v>9.642584506989472</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.72623206870286</v>
+        <v>33.38749113950155</v>
       </c>
       <c r="G2">
-        <v>23.75414464017631</v>
+        <v>34.71411329326438</v>
       </c>
       <c r="H2">
-        <v>9.500143963109863</v>
+        <v>15.910238371016</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.220281835668859</v>
+        <v>10.76767496243022</v>
       </c>
       <c r="K2">
-        <v>10.82167680214053</v>
+        <v>9.53196645767798</v>
       </c>
       <c r="L2">
-        <v>7.211643025407974</v>
+        <v>11.31174274511446</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.88552346627684</v>
+        <v>19.80595528425099</v>
       </c>
       <c r="O2">
-        <v>15.56397743168764</v>
+        <v>24.98518049869629</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.00622224625772</v>
+        <v>13.40365289755233</v>
       </c>
       <c r="C3">
-        <v>7.404905617276001</v>
+        <v>10.45588753714687</v>
       </c>
       <c r="D3">
-        <v>6.463100412466573</v>
+        <v>9.625505030781763</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.5961421436015</v>
+        <v>33.46196501129079</v>
       </c>
       <c r="G3">
-        <v>23.60470410418763</v>
+        <v>34.80760788843919</v>
       </c>
       <c r="H3">
-        <v>9.564163287795109</v>
+        <v>15.95449018266681</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.25947338669834</v>
+        <v>10.79013303547321</v>
       </c>
       <c r="K3">
-        <v>10.20143924094659</v>
+        <v>9.370433840715968</v>
       </c>
       <c r="L3">
-        <v>7.053759208105773</v>
+        <v>11.30629027134798</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.05878714534414</v>
+        <v>19.86024246409501</v>
       </c>
       <c r="O3">
-        <v>15.61243664151081</v>
+        <v>25.05983583396824</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.46420242563573</v>
+        <v>13.27183586264525</v>
       </c>
       <c r="C4">
-        <v>7.425998223171241</v>
+        <v>10.46546748509545</v>
       </c>
       <c r="D4">
-        <v>6.337488867067282</v>
+        <v>9.616441042074747</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.53108231169594</v>
+        <v>33.51403042430401</v>
       </c>
       <c r="G4">
-        <v>23.53398899027415</v>
+        <v>34.87323800233859</v>
       </c>
       <c r="H4">
-        <v>9.608048000326463</v>
+        <v>15.98370787206132</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.285363028929797</v>
+        <v>10.80485898692041</v>
       </c>
       <c r="K4">
-        <v>9.800211128501397</v>
+        <v>9.27104140863168</v>
       </c>
       <c r="L4">
-        <v>6.957619794014495</v>
+        <v>11.3043612128114</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.16789750782261</v>
+        <v>19.89519104575642</v>
       </c>
       <c r="O4">
-        <v>15.65246841163419</v>
+        <v>25.10985561328345</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.2369871984206</v>
+        <v>13.21828947072973</v>
       </c>
       <c r="C5">
-        <v>7.434925153760473</v>
+        <v>10.4695354059024</v>
       </c>
       <c r="D5">
-        <v>6.286194436709887</v>
+        <v>9.613108226767526</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.50822306448789</v>
+        <v>33.53684004442364</v>
       </c>
       <c r="G5">
-        <v>23.51032521061832</v>
+        <v>34.90204631529464</v>
       </c>
       <c r="H5">
-        <v>9.62705248500963</v>
+        <v>15.99612946769572</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.296367408831928</v>
+        <v>10.81109592469584</v>
       </c>
       <c r="K5">
-        <v>9.63162796881493</v>
+        <v>9.2305347069661</v>
       </c>
       <c r="L5">
-        <v>6.918692718631372</v>
+        <v>11.30393353993677</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.21305947378229</v>
+        <v>19.90984035894559</v>
       </c>
       <c r="O5">
-        <v>15.67128251442522</v>
+        <v>25.13129004562271</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.19887993425403</v>
+        <v>13.20941035873905</v>
       </c>
       <c r="C6">
-        <v>7.436427441174219</v>
+        <v>10.47022079979975</v>
       </c>
       <c r="D6">
-        <v>6.277672962115267</v>
+        <v>9.612576692969411</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.50464569064913</v>
+        <v>33.5407237094431</v>
       </c>
       <c r="G6">
-        <v>23.50670283119553</v>
+        <v>34.90695440566724</v>
       </c>
       <c r="H6">
-        <v>9.630275032997545</v>
+        <v>15.99822319098722</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.298221966161205</v>
+        <v>10.81214583089208</v>
       </c>
       <c r="K6">
-        <v>9.603329847931775</v>
+        <v>9.223809851123772</v>
       </c>
       <c r="L6">
-        <v>6.912245478721732</v>
+        <v>11.30388421997417</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.22060115652799</v>
+        <v>19.91229751010281</v>
       </c>
       <c r="O6">
-        <v>15.67455520030769</v>
+        <v>25.13491268016189</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.46116358800036</v>
+        <v>13.27111294032673</v>
       </c>
       <c r="C7">
-        <v>7.426117274629005</v>
+        <v>10.46552168183313</v>
       </c>
       <c r="D7">
-        <v>6.3367974179084</v>
+        <v>9.616394629713392</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.53075933322867</v>
+        <v>33.51433159647762</v>
       </c>
       <c r="G7">
-        <v>23.53364917825303</v>
+        <v>34.8736181724785</v>
       </c>
       <c r="H7">
-        <v>9.608299800436459</v>
+        <v>15.98387330763452</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.285509605422603</v>
+        <v>10.80494214428114</v>
       </c>
       <c r="K7">
-        <v>9.797958046106871</v>
+        <v>9.270495069215103</v>
       </c>
       <c r="L7">
-        <v>6.957093730455065</v>
+        <v>11.3043539916652</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.16850373205962</v>
+        <v>19.89538696015044</v>
       </c>
       <c r="O7">
-        <v>15.65271212914443</v>
+        <v>25.11014043076843</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.56257125238891</v>
+        <v>13.54470802974622</v>
       </c>
       <c r="C8">
-        <v>7.383535632858631</v>
+        <v>10.44622425748154</v>
       </c>
       <c r="D8">
-        <v>6.59655331173235</v>
+        <v>9.636402076465723</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.67826066372102</v>
+        <v>33.41185356601713</v>
       </c>
       <c r="G8">
-        <v>23.69817112404786</v>
+        <v>34.74464073550278</v>
       </c>
       <c r="H8">
-        <v>9.52124968585365</v>
+        <v>15.92507182782674</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.233413035671419</v>
+        <v>10.77522440045247</v>
       </c>
       <c r="K8">
-        <v>10.61207844982847</v>
+        <v>9.476343209377076</v>
       </c>
       <c r="L8">
-        <v>7.157067315789702</v>
+        <v>11.30956930141112</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.94470713735304</v>
+        <v>19.82433877127643</v>
       </c>
       <c r="O8">
-        <v>15.5785025262181</v>
+        <v>25.01005363692833</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.51893813592005</v>
+        <v>14.08161146193712</v>
       </c>
       <c r="C9">
-        <v>7.310624626340043</v>
+        <v>10.41352461315637</v>
       </c>
       <c r="D9">
-        <v>7.096922429996519</v>
+        <v>9.686783772806503</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.08794098076745</v>
+        <v>33.26123310405132</v>
       </c>
       <c r="G9">
-        <v>24.19326219202231</v>
+        <v>34.55715683797312</v>
       </c>
       <c r="H9">
-        <v>9.388255832053032</v>
+        <v>15.82598374163278</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.145977403001242</v>
+        <v>10.72435812810725</v>
       </c>
       <c r="K9">
-        <v>12.04520647438737</v>
+        <v>9.876210301209579</v>
       </c>
       <c r="L9">
-        <v>7.553487636764783</v>
+        <v>11.33097639061952</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.52684670845566</v>
+        <v>19.6977842542851</v>
       </c>
       <c r="O9">
-        <v>15.51830086434427</v>
+        <v>24.84697625211592</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91764337133465</v>
+        <v>14.47252696565956</v>
       </c>
       <c r="C10">
-        <v>7.263630709218869</v>
+        <v>10.39260907606816</v>
       </c>
       <c r="D10">
-        <v>7.455188895419675</v>
+        <v>9.730390210226881</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.46575966272141</v>
+        <v>33.18131504274394</v>
       </c>
       <c r="G10">
-        <v>24.66868358489525</v>
+        <v>34.45953887628563</v>
       </c>
       <c r="H10">
-        <v>9.315558491440493</v>
+        <v>15.76304552372537</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.091066489484676</v>
+        <v>10.69147462581174</v>
       </c>
       <c r="K10">
-        <v>12.99734964681695</v>
+        <v>10.16491463612066</v>
       </c>
       <c r="L10">
-        <v>7.84466973125603</v>
+        <v>11.35340961577562</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.23174155140828</v>
+        <v>19.61251658011832</v>
       </c>
       <c r="O10">
-        <v>15.53128938587015</v>
+        <v>24.74742078180166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.51941490643185</v>
+        <v>14.64882681157927</v>
       </c>
       <c r="C11">
-        <v>7.243707752412281</v>
+        <v>10.38376360199958</v>
       </c>
       <c r="D11">
-        <v>7.615444056813457</v>
+        <v>9.751610819478081</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.65489794099322</v>
+        <v>33.15164045006444</v>
       </c>
       <c r="G11">
-        <v>24.91032267249575</v>
+        <v>34.4238836966877</v>
       </c>
       <c r="H11">
-        <v>9.2883862570182</v>
+        <v>15.73654899463493</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.06819534696205</v>
+        <v>10.67748336711874</v>
       </c>
       <c r="K11">
-        <v>13.40855397449094</v>
+        <v>10.29459819933063</v>
       </c>
       <c r="L11">
-        <v>7.976601591863417</v>
+        <v>11.36504495066839</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.09986672124212</v>
+        <v>19.57538504925426</v>
       </c>
       <c r="O11">
-        <v>15.55074215644633</v>
+        <v>24.70653336400434</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.74237538291088</v>
+        <v>14.71530597176252</v>
       </c>
       <c r="C12">
-        <v>7.236375279140163</v>
+        <v>10.38050983517034</v>
       </c>
       <c r="D12">
-        <v>7.675686920374744</v>
+        <v>9.759841047937991</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.72903917077691</v>
+        <v>33.14136415531912</v>
       </c>
       <c r="G12">
-        <v>25.00554365322823</v>
+        <v>34.41164301004942</v>
       </c>
       <c r="H12">
-        <v>9.278985999836111</v>
+        <v>15.72682195674008</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.059845375572852</v>
+        <v>10.6723239090316</v>
       </c>
       <c r="K12">
-        <v>13.56111517376359</v>
+        <v>10.34342526145389</v>
       </c>
       <c r="L12">
-        <v>8.02644515172199</v>
+        <v>11.36965416631504</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.05025255827004</v>
+        <v>19.56156145424963</v>
       </c>
       <c r="O12">
-        <v>15.56014761464244</v>
+        <v>24.69168353068453</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.69457483268531</v>
+        <v>14.70100198292955</v>
       </c>
       <c r="C13">
-        <v>7.237944987996604</v>
+        <v>10.38120633661643</v>
       </c>
       <c r="D13">
-        <v>7.66273295942534</v>
+        <v>9.758059947665224</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.71295900894285</v>
+        <v>33.14353460648627</v>
       </c>
       <c r="G13">
-        <v>24.98486979919156</v>
+        <v>34.41422313374319</v>
       </c>
       <c r="H13">
-        <v>9.280970288005982</v>
+        <v>15.72890321600028</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.061629738992236</v>
+        <v>10.67342892722772</v>
       </c>
       <c r="K13">
-        <v>13.52839854890566</v>
+        <v>10.33292266932194</v>
       </c>
       <c r="L13">
-        <v>8.015716222117144</v>
+        <v>11.36865249485073</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.06092372258803</v>
+        <v>19.56452807395869</v>
       </c>
       <c r="O13">
-        <v>15.55802984018479</v>
+        <v>24.69485353227437</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.53785629036638</v>
+        <v>14.65430208380877</v>
       </c>
       <c r="C14">
-        <v>7.243100242011185</v>
+        <v>10.38349399447644</v>
       </c>
       <c r="D14">
-        <v>7.620409407779187</v>
+        <v>9.752284055168348</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.66094692418078</v>
+        <v>33.15077575670762</v>
       </c>
       <c r="G14">
-        <v>24.91808170150196</v>
+        <v>34.42285135915265</v>
       </c>
       <c r="H14">
-        <v>9.287594827607906</v>
+        <v>15.7357426019023</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.067502114351438</v>
+        <v>10.67705611743697</v>
       </c>
       <c r="K14">
-        <v>13.42116844255995</v>
+        <v>10.29862111340324</v>
       </c>
       <c r="L14">
-        <v>7.980704798704068</v>
+        <v>11.36542009673665</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.09577854015237</v>
+        <v>19.57424302334815</v>
       </c>
       <c r="O14">
-        <v>15.55147456023874</v>
+        <v>24.70529896338453</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.44122261805416</v>
+        <v>14.62565856318603</v>
       </c>
       <c r="C15">
-        <v>7.246285665900729</v>
+        <v>10.38490771817913</v>
       </c>
       <c r="D15">
-        <v>7.594426003346877</v>
+        <v>9.748771338061216</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.62941697920645</v>
+        <v>33.15533629880847</v>
       </c>
       <c r="G15">
-        <v>24.8776580428713</v>
+        <v>34.42830070641424</v>
       </c>
       <c r="H15">
-        <v>9.291769611771416</v>
+        <v>15.73997184573916</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.071139830500593</v>
+        <v>10.67929593043962</v>
       </c>
       <c r="K15">
-        <v>13.3550764132373</v>
+        <v>10.27757251622674</v>
       </c>
       <c r="L15">
-        <v>7.959243023141611</v>
+        <v>11.36346654091075</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.11716980196153</v>
+        <v>19.58022458598942</v>
       </c>
       <c r="O15">
-        <v>15.54772752075801</v>
+        <v>24.71177958589343</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.87762561973829</v>
+        <v>14.46096923395666</v>
       </c>
       <c r="C16">
-        <v>7.26496222380702</v>
+        <v>10.39320057897446</v>
       </c>
       <c r="D16">
-        <v>7.444656585364573</v>
+        <v>9.72903085564954</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.45374968168015</v>
+        <v>33.18338879850734</v>
       </c>
       <c r="G16">
-        <v>24.65340861191506</v>
+        <v>34.46204537315703</v>
       </c>
       <c r="H16">
-        <v>9.317456421034787</v>
+        <v>15.7648200578265</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.092604238897197</v>
+        <v>10.69240842286163</v>
       </c>
       <c r="K16">
-        <v>12.97003510136812</v>
+        <v>10.15640249992438</v>
       </c>
       <c r="L16">
-        <v>7.836033534170586</v>
+        <v>11.35267778961317</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.24040614905101</v>
+        <v>19.61497647459736</v>
       </c>
       <c r="O16">
-        <v>15.5302984767876</v>
+        <v>24.75018147162118</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.52307060789077</v>
+        <v>14.35950110907327</v>
       </c>
       <c r="C17">
-        <v>7.276794173065489</v>
+        <v>10.39845907356088</v>
       </c>
       <c r="D17">
-        <v>7.352042633309837</v>
+        <v>9.71727197129047</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.35043336779236</v>
+        <v>33.2023093635913</v>
       </c>
       <c r="G17">
-        <v>24.52238977554406</v>
+        <v>34.48499022226082</v>
       </c>
       <c r="H17">
-        <v>9.334753791907699</v>
+        <v>15.78061008401835</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.106317209146507</v>
+        <v>10.70070004539392</v>
       </c>
       <c r="K17">
-        <v>12.7282063967787</v>
+        <v>10.08161409474492</v>
       </c>
       <c r="L17">
-        <v>7.760283590506052</v>
+        <v>11.34642384011089</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.31660290917815</v>
+        <v>19.63671936489001</v>
       </c>
       <c r="O17">
-        <v>15.52314055531816</v>
+        <v>24.7748673258741</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.31588929248535</v>
+        <v>14.30099889738637</v>
       </c>
       <c r="C18">
-        <v>7.283736357089346</v>
+        <v>10.40154662369271</v>
       </c>
       <c r="D18">
-        <v>7.298519983934399</v>
+        <v>9.710639109830762</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.29263206989919</v>
+        <v>33.21382078376649</v>
       </c>
       <c r="G18">
-        <v>24.44941560409037</v>
+        <v>34.49901111869534</v>
       </c>
       <c r="H18">
-        <v>9.34525537114108</v>
+        <v>15.78989300526816</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.114402481935296</v>
+        <v>10.70556026801934</v>
       </c>
       <c r="K18">
-        <v>12.58704829240903</v>
+        <v>10.038445029882</v>
       </c>
       <c r="L18">
-        <v>7.716666709892039</v>
+        <v>11.34296152411229</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.36065339222857</v>
+        <v>19.64938133853914</v>
       </c>
       <c r="O18">
-        <v>15.52029290564275</v>
+        <v>24.7894801791588</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.24518161378933</v>
+        <v>14.2811688604011</v>
       </c>
       <c r="C19">
-        <v>7.286110270224276</v>
+        <v>10.40260284803135</v>
       </c>
       <c r="D19">
-        <v>7.28035623386589</v>
+        <v>9.708415891973848</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.27333918933372</v>
+        <v>33.21782634158833</v>
       </c>
       <c r="G19">
-        <v>24.42511499089894</v>
+        <v>34.50389972208903</v>
       </c>
       <c r="H19">
-        <v>9.348904709697772</v>
+        <v>15.79307055954072</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.117173785740051</v>
+        <v>10.70722151517261</v>
       </c>
       <c r="K19">
-        <v>12.53890005866945</v>
+        <v>10.02380386961143</v>
       </c>
       <c r="L19">
-        <v>7.70189189882681</v>
+        <v>11.34181246819152</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.37560712361599</v>
+        <v>19.65369529526967</v>
       </c>
       <c r="O19">
-        <v>15.51954396555468</v>
+        <v>24.79449896379314</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.56114970400879</v>
+        <v>14.37031755417212</v>
       </c>
       <c r="C20">
-        <v>7.275520468677896</v>
+        <v>10.39789278011861</v>
       </c>
       <c r="D20">
-        <v>7.361928175793304</v>
+        <v>9.718510246706002</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.36126325928215</v>
+        <v>33.20023015527463</v>
       </c>
       <c r="G20">
-        <v>24.53608963270375</v>
+        <v>34.48246244070513</v>
       </c>
       <c r="H20">
-        <v>9.332854974272655</v>
+        <v>15.77890841691269</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.104836900431011</v>
+        <v>10.69980796245334</v>
       </c>
       <c r="K20">
-        <v>12.75416317030891</v>
+        <v>10.08959158368989</v>
       </c>
       <c r="L20">
-        <v>7.768352520350275</v>
+        <v>11.34707565121125</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.30846855792952</v>
+        <v>19.63438865491925</v>
       </c>
       <c r="O20">
-        <v>15.52377048626581</v>
+        <v>24.77219660229762</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.58402141927899</v>
+        <v>14.66802710281899</v>
       </c>
       <c r="C21">
-        <v>7.241580244925657</v>
+        <v>10.3828194564558</v>
       </c>
       <c r="D21">
-        <v>7.632853240295417</v>
+        <v>9.753975334927659</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.67615552443903</v>
+        <v>33.1486227787993</v>
       </c>
       <c r="G21">
-        <v>24.9375976003049</v>
+        <v>34.42028279410331</v>
       </c>
       <c r="H21">
-        <v>9.285624568079777</v>
+        <v>15.73372538919382</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.065768755599729</v>
+        <v>10.67598696198822</v>
       </c>
       <c r="K21">
-        <v>13.45275006155467</v>
+        <v>10.30870428658529</v>
       </c>
       <c r="L21">
-        <v>7.990991959872098</v>
+        <v>11.36636403724605</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.08553218036632</v>
+        <v>19.57138307451305</v>
       </c>
       <c r="O21">
-        <v>15.55334393758169</v>
+        <v>24.70221369448371</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.22388666430939</v>
+        <v>14.86092838331329</v>
       </c>
       <c r="C22">
-        <v>7.220634968911092</v>
+        <v>10.37352651190732</v>
       </c>
       <c r="D22">
-        <v>7.80732100658361</v>
+        <v>9.778284934689907</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.89664888188945</v>
+        <v>33.1204946935454</v>
       </c>
       <c r="G22">
-        <v>25.22169834056365</v>
+        <v>34.38699664912538</v>
       </c>
       <c r="H22">
-        <v>9.259960557297935</v>
+        <v>15.70598276294812</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.042051180289945</v>
+        <v>10.6612269844996</v>
       </c>
       <c r="K22">
-        <v>13.89094324582175</v>
+        <v>10.45024864086581</v>
       </c>
       <c r="L22">
-        <v>8.135806211416471</v>
+        <v>11.38015306248598</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.94171042134182</v>
+        <v>19.53158805880459</v>
       </c>
       <c r="O22">
-        <v>15.58459941468869</v>
+        <v>24.66016763577375</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.88498412072687</v>
+        <v>14.75814579681692</v>
       </c>
       <c r="C23">
-        <v>7.231699757025617</v>
+        <v>10.37843537260386</v>
       </c>
       <c r="D23">
-        <v>7.714457215745657</v>
+        <v>9.765208502925869</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.77761278106753</v>
+        <v>33.13499477178092</v>
       </c>
       <c r="G23">
-        <v>25.06806380012203</v>
+        <v>34.40408865044542</v>
       </c>
       <c r="H23">
-        <v>9.273167708302983</v>
+        <v>15.72062610356375</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.054540883669468</v>
+        <v>10.66903082709264</v>
       </c>
       <c r="K23">
-        <v>13.65875086988992</v>
+        <v>10.37486950540855</v>
       </c>
       <c r="L23">
-        <v>8.058592020672361</v>
+        <v>11.37268622608408</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.01830451855342</v>
+        <v>19.55270120720623</v>
       </c>
       <c r="O23">
-        <v>15.5667963447816</v>
+        <v>24.68227045226114</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.54394456045863</v>
+        <v>14.3654279542607</v>
       </c>
       <c r="C24">
-        <v>7.276095875067987</v>
+        <v>10.39814860084742</v>
       </c>
       <c r="D24">
-        <v>7.357459782943438</v>
+        <v>9.717950024979114</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.35636209497814</v>
+        <v>33.20116819134583</v>
       </c>
       <c r="G24">
-        <v>24.52988861203568</v>
+        <v>34.48360266683223</v>
       </c>
       <c r="H24">
-        <v>9.333711697605345</v>
+        <v>15.77967710194952</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.105505520938522</v>
+        <v>10.70021098263096</v>
       </c>
       <c r="K24">
-        <v>12.74243473985663</v>
+        <v>10.08598549396738</v>
       </c>
       <c r="L24">
-        <v>7.764704763483859</v>
+        <v>11.3467805524419</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.31214533701231</v>
+        <v>19.6354418651452</v>
       </c>
       <c r="O24">
-        <v>15.52348175333323</v>
+        <v>24.77340272624431</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.00903011245588</v>
+        <v>13.93672030543415</v>
       </c>
       <c r="C25">
-        <v>7.329203591319739</v>
+        <v>10.42182290029675</v>
       </c>
       <c r="D25">
-        <v>6.962945050270021</v>
+        <v>9.671981001998342</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.96383756542612</v>
+        <v>33.29658411621249</v>
       </c>
       <c r="G25">
-        <v>24.04013423636704</v>
+        <v>34.60084460505751</v>
       </c>
       <c r="H25">
-        <v>9.419994097467784</v>
+        <v>15.85105590651946</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.168019811659903</v>
+        <v>10.73732855743109</v>
       </c>
       <c r="K25">
-        <v>11.67515587915109</v>
+        <v>9.768733539632956</v>
       </c>
       <c r="L25">
-        <v>7.44607199070728</v>
+        <v>11.32399914561757</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.6377321473635</v>
+        <v>19.73066104350883</v>
       </c>
       <c r="O25">
-        <v>15.52491674791384</v>
+        <v>24.88753706033181</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_159/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.61900842859776</v>
+        <v>13.84710169230718</v>
       </c>
       <c r="C2">
-        <v>10.44134461977274</v>
+        <v>7.372710901154045</v>
       </c>
       <c r="D2">
-        <v>9.642584506989472</v>
+        <v>6.666480920477767</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.38749113950155</v>
+        <v>21.72623206870274</v>
       </c>
       <c r="G2">
-        <v>34.71411329326438</v>
+        <v>23.75414464017621</v>
       </c>
       <c r="H2">
-        <v>15.910238371016</v>
+        <v>9.500143963109799</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.76767496243022</v>
+        <v>6.220281835668916</v>
       </c>
       <c r="K2">
-        <v>9.53196645767798</v>
+        <v>10.82167680214056</v>
       </c>
       <c r="L2">
-        <v>11.31174274511446</v>
+        <v>7.211643025407994</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.80595528425099</v>
+        <v>12.88552346627681</v>
       </c>
       <c r="O2">
-        <v>24.98518049869629</v>
+        <v>15.56397743168751</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.40365289755233</v>
+        <v>13.00622224625773</v>
       </c>
       <c r="C3">
-        <v>10.45588753714687</v>
+        <v>7.404905617276136</v>
       </c>
       <c r="D3">
-        <v>9.625505030781763</v>
+        <v>6.463100412466538</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.46196501129079</v>
+        <v>21.59614214360156</v>
       </c>
       <c r="G3">
-        <v>34.80760788843919</v>
+        <v>23.60470410418762</v>
       </c>
       <c r="H3">
-        <v>15.95449018266681</v>
+        <v>9.564163287795232</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.79013303547321</v>
+        <v>6.259473386698279</v>
       </c>
       <c r="K3">
-        <v>9.370433840715968</v>
+        <v>10.20143924094659</v>
       </c>
       <c r="L3">
-        <v>11.30629027134798</v>
+        <v>7.053759208105687</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.86024246409501</v>
+        <v>13.05878714534417</v>
       </c>
       <c r="O3">
-        <v>25.05983583396824</v>
+        <v>15.61243664151085</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.27183586264525</v>
+        <v>12.46420242563574</v>
       </c>
       <c r="C4">
-        <v>10.46546748509545</v>
+        <v>7.42599822317151</v>
       </c>
       <c r="D4">
-        <v>9.616441042074747</v>
+        <v>6.337488867067441</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.51403042430401</v>
+        <v>21.53108231169597</v>
       </c>
       <c r="G4">
-        <v>34.87323800233859</v>
+        <v>23.53398899027394</v>
       </c>
       <c r="H4">
-        <v>15.98370787206132</v>
+        <v>9.608048000326642</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.80485898692041</v>
+        <v>6.285363028929766</v>
       </c>
       <c r="K4">
-        <v>9.27104140863168</v>
+        <v>9.800211128501433</v>
       </c>
       <c r="L4">
-        <v>11.3043612128114</v>
+        <v>6.95761979401447</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.89519104575642</v>
+        <v>13.16789750782264</v>
       </c>
       <c r="O4">
-        <v>25.10985561328345</v>
+        <v>15.65246841163417</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.21828947072973</v>
+        <v>12.2369871984206</v>
       </c>
       <c r="C5">
-        <v>10.4695354059024</v>
+        <v>7.434925153760743</v>
       </c>
       <c r="D5">
-        <v>9.613108226767526</v>
+        <v>6.286194436710145</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.53684004442364</v>
+        <v>21.50822306448796</v>
       </c>
       <c r="G5">
-        <v>34.90204631529464</v>
+        <v>23.51032521061819</v>
       </c>
       <c r="H5">
-        <v>15.99612946769572</v>
+        <v>9.627052485009626</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.81109592469584</v>
+        <v>6.296367408831989</v>
       </c>
       <c r="K5">
-        <v>9.2305347069661</v>
+        <v>9.631627968814987</v>
       </c>
       <c r="L5">
-        <v>11.30393353993677</v>
+        <v>6.918692718631497</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.90984035894559</v>
+        <v>13.21305947378226</v>
       </c>
       <c r="O5">
-        <v>25.13129004562271</v>
+        <v>15.67128251442515</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.20941035873905</v>
+        <v>12.19887993425405</v>
       </c>
       <c r="C6">
-        <v>10.47022079979975</v>
+        <v>7.436427441174487</v>
       </c>
       <c r="D6">
-        <v>9.612576692969411</v>
+        <v>6.277672962115319</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.5407237094431</v>
+        <v>21.50464569064899</v>
       </c>
       <c r="G6">
-        <v>34.90695440566724</v>
+        <v>23.50670283119523</v>
       </c>
       <c r="H6">
-        <v>15.99822319098722</v>
+        <v>9.630275032997492</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.81214583089208</v>
+        <v>6.298221966161297</v>
       </c>
       <c r="K6">
-        <v>9.223809851123772</v>
+        <v>9.603329847931805</v>
       </c>
       <c r="L6">
-        <v>11.30388421997417</v>
+        <v>6.912245478721769</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.91229751010281</v>
+        <v>13.22060115652789</v>
       </c>
       <c r="O6">
-        <v>25.13491268016189</v>
+        <v>15.67455520030756</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.27111294032673</v>
+        <v>12.46116358800037</v>
       </c>
       <c r="C7">
-        <v>10.46552168183313</v>
+        <v>7.426117274629264</v>
       </c>
       <c r="D7">
-        <v>9.616394629713392</v>
+        <v>6.336797417908254</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.51433159647762</v>
+        <v>21.53075933322855</v>
       </c>
       <c r="G7">
-        <v>34.8736181724785</v>
+        <v>23.53364917825289</v>
       </c>
       <c r="H7">
-        <v>15.98387330763452</v>
+        <v>9.608299800436457</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.80494214428114</v>
+        <v>6.285509605422666</v>
       </c>
       <c r="K7">
-        <v>9.270495069215103</v>
+        <v>9.797958046106899</v>
       </c>
       <c r="L7">
-        <v>11.3043539916652</v>
+        <v>6.957093730454984</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.89538696015044</v>
+        <v>13.16850373205962</v>
       </c>
       <c r="O7">
-        <v>25.11014043076843</v>
+        <v>15.65271212914436</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.54470802974622</v>
+        <v>13.56257125238889</v>
       </c>
       <c r="C8">
-        <v>10.44622425748154</v>
+        <v>7.383535632858622</v>
       </c>
       <c r="D8">
-        <v>9.636402076465723</v>
+        <v>6.596553311732311</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.41185356601713</v>
+        <v>21.67826066372082</v>
       </c>
       <c r="G8">
-        <v>34.74464073550278</v>
+        <v>23.69817112404771</v>
       </c>
       <c r="H8">
-        <v>15.92507182782674</v>
+        <v>9.521249685853528</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.77522440045247</v>
+        <v>6.233413035671388</v>
       </c>
       <c r="K8">
-        <v>9.476343209377076</v>
+        <v>10.61207844982848</v>
       </c>
       <c r="L8">
-        <v>11.30956930141112</v>
+        <v>7.157067315789649</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.82433877127643</v>
+        <v>12.94470713735301</v>
       </c>
       <c r="O8">
-        <v>25.01005363692833</v>
+        <v>15.57850252621801</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.08161146193712</v>
+        <v>15.51893813592009</v>
       </c>
       <c r="C9">
-        <v>10.41352461315637</v>
+        <v>7.31062462633991</v>
       </c>
       <c r="D9">
-        <v>9.686783772806503</v>
+        <v>7.096922429996547</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.26123310405132</v>
+        <v>22.0879409807673</v>
       </c>
       <c r="G9">
-        <v>34.55715683797312</v>
+        <v>24.19326219202195</v>
       </c>
       <c r="H9">
-        <v>15.82598374163278</v>
+        <v>9.388255832052911</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.72435812810725</v>
+        <v>6.145977403001146</v>
       </c>
       <c r="K9">
-        <v>9.876210301209579</v>
+        <v>12.04520647438744</v>
       </c>
       <c r="L9">
-        <v>11.33097639061952</v>
+        <v>7.553487636764769</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.6977842542851</v>
+        <v>12.52684670845559</v>
       </c>
       <c r="O9">
-        <v>24.84697625211592</v>
+        <v>15.51830086434408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.47252696565956</v>
+        <v>16.91764337133468</v>
       </c>
       <c r="C10">
-        <v>10.39260907606816</v>
+        <v>7.263630709218738</v>
       </c>
       <c r="D10">
-        <v>9.730390210226881</v>
+        <v>7.455188895419747</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.18131504274394</v>
+        <v>22.46575966272138</v>
       </c>
       <c r="G10">
-        <v>34.45953887628563</v>
+        <v>24.66868358489519</v>
       </c>
       <c r="H10">
-        <v>15.76304552372537</v>
+        <v>9.315558491440482</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.69147462581174</v>
+        <v>6.091066489484645</v>
       </c>
       <c r="K10">
-        <v>10.16491463612066</v>
+        <v>12.99734964681698</v>
       </c>
       <c r="L10">
-        <v>11.35340961577562</v>
+        <v>7.84466973125605</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.61251658011832</v>
+        <v>12.23174155140824</v>
       </c>
       <c r="O10">
-        <v>24.74742078180166</v>
+        <v>15.53128938587008</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.64882681157927</v>
+        <v>17.51941490643194</v>
       </c>
       <c r="C11">
-        <v>10.38376360199958</v>
+        <v>7.243707752411998</v>
       </c>
       <c r="D11">
-        <v>9.751610819478081</v>
+        <v>7.615444056813423</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.15164045006444</v>
+        <v>22.65489794099304</v>
       </c>
       <c r="G11">
-        <v>34.4238836966877</v>
+        <v>24.9103226724957</v>
       </c>
       <c r="H11">
-        <v>15.73654899463493</v>
+        <v>9.288386257018034</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.67748336711874</v>
+        <v>6.068195346961992</v>
       </c>
       <c r="K11">
-        <v>10.29459819933063</v>
+        <v>13.408553974491</v>
       </c>
       <c r="L11">
-        <v>11.36504495066839</v>
+        <v>7.976601591863417</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.57538504925426</v>
+        <v>12.09986672124205</v>
       </c>
       <c r="O11">
-        <v>24.70653336400434</v>
+        <v>15.5507421564462</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.71530597176252</v>
+        <v>17.74237538291094</v>
       </c>
       <c r="C12">
-        <v>10.38050983517034</v>
+        <v>7.236375279139774</v>
       </c>
       <c r="D12">
-        <v>9.759841047937991</v>
+        <v>7.675686920374631</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.14136415531912</v>
+        <v>22.7290391707767</v>
       </c>
       <c r="G12">
-        <v>34.41164301004942</v>
+        <v>25.00554365322812</v>
       </c>
       <c r="H12">
-        <v>15.72682195674008</v>
+        <v>9.278985999836067</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.6723239090316</v>
+        <v>6.059845375572847</v>
       </c>
       <c r="K12">
-        <v>10.34342526145389</v>
+        <v>13.56111517376364</v>
       </c>
       <c r="L12">
-        <v>11.36965416631504</v>
+        <v>8.026445151721992</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.56156145424963</v>
+        <v>12.05025255826997</v>
       </c>
       <c r="O12">
-        <v>24.69168353068453</v>
+        <v>15.56014761464236</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.70100198292955</v>
+        <v>17.69457483268533</v>
       </c>
       <c r="C13">
-        <v>10.38120633661643</v>
+        <v>7.237944987996597</v>
       </c>
       <c r="D13">
-        <v>9.758059947665224</v>
+        <v>7.662732959425243</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.14353460648627</v>
+        <v>22.71295900894285</v>
       </c>
       <c r="G13">
-        <v>34.41422313374319</v>
+        <v>24.98486979919167</v>
       </c>
       <c r="H13">
-        <v>15.72890321600028</v>
+        <v>9.280970288005978</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.67342892722772</v>
+        <v>6.061629738992234</v>
       </c>
       <c r="K13">
-        <v>10.33292266932194</v>
+        <v>13.52839854890566</v>
       </c>
       <c r="L13">
-        <v>11.36865249485073</v>
+        <v>8.01571622211716</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.56452807395869</v>
+        <v>12.06092372258813</v>
       </c>
       <c r="O13">
-        <v>24.69485353227437</v>
+        <v>15.55802984018485</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.65430208380877</v>
+        <v>17.5378562903664</v>
       </c>
       <c r="C14">
-        <v>10.38349399447644</v>
+        <v>7.243100242011185</v>
       </c>
       <c r="D14">
-        <v>9.752284055168348</v>
+        <v>7.620409407779157</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.15077575670762</v>
+        <v>22.66094692418067</v>
       </c>
       <c r="G14">
-        <v>34.42285135915265</v>
+        <v>24.91808170150184</v>
       </c>
       <c r="H14">
-        <v>15.7357426019023</v>
+        <v>9.287594827607847</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.67705611743697</v>
+        <v>6.067502114351501</v>
       </c>
       <c r="K14">
-        <v>10.29862111340324</v>
+        <v>13.42116844255997</v>
       </c>
       <c r="L14">
-        <v>11.36542009673665</v>
+        <v>7.980704798704101</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.57424302334815</v>
+        <v>12.09577854015227</v>
       </c>
       <c r="O14">
-        <v>24.70529896338453</v>
+        <v>15.55147456023865</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.62565856318603</v>
+        <v>17.44122261805418</v>
       </c>
       <c r="C15">
-        <v>10.38490771817913</v>
+        <v>7.246285665900857</v>
       </c>
       <c r="D15">
-        <v>9.748771338061216</v>
+        <v>7.594426003346855</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.15533629880847</v>
+        <v>22.62941697920644</v>
       </c>
       <c r="G15">
-        <v>34.42830070641424</v>
+        <v>24.87765804287136</v>
       </c>
       <c r="H15">
-        <v>15.73997184573916</v>
+        <v>9.29176961177137</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.67929593043962</v>
+        <v>6.071139830500627</v>
       </c>
       <c r="K15">
-        <v>10.27757251622674</v>
+        <v>13.35507641323734</v>
       </c>
       <c r="L15">
-        <v>11.36346654091075</v>
+        <v>7.959243023141589</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.58022458598942</v>
+        <v>12.11716980196153</v>
       </c>
       <c r="O15">
-        <v>24.71177958589343</v>
+        <v>15.54772752075801</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.46096923395666</v>
+        <v>16.8776256197383</v>
       </c>
       <c r="C16">
-        <v>10.39320057897446</v>
+        <v>7.264962223806894</v>
       </c>
       <c r="D16">
-        <v>9.72903085564954</v>
+        <v>7.44465658536458</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.18338879850734</v>
+        <v>22.45374968168013</v>
       </c>
       <c r="G16">
-        <v>34.46204537315703</v>
+        <v>24.65340861191504</v>
       </c>
       <c r="H16">
-        <v>15.7648200578265</v>
+        <v>9.317456421034782</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.69240842286163</v>
+        <v>6.092604238897253</v>
       </c>
       <c r="K16">
-        <v>10.15640249992438</v>
+        <v>12.97003510136811</v>
       </c>
       <c r="L16">
-        <v>11.35267778961317</v>
+        <v>7.836033534170656</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.61497647459736</v>
+        <v>12.24040614905102</v>
       </c>
       <c r="O16">
-        <v>24.75018147162118</v>
+        <v>15.53029847678759</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.35950110907327</v>
+        <v>16.52307060789079</v>
       </c>
       <c r="C17">
-        <v>10.39845907356088</v>
+        <v>7.276794173065351</v>
       </c>
       <c r="D17">
-        <v>9.71727197129047</v>
+        <v>7.352042633309845</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.2023093635913</v>
+        <v>22.35043336779241</v>
       </c>
       <c r="G17">
-        <v>34.48499022226082</v>
+        <v>24.52238977554412</v>
       </c>
       <c r="H17">
-        <v>15.78061008401835</v>
+        <v>9.334753791907703</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.70070004539392</v>
+        <v>6.106317209146598</v>
       </c>
       <c r="K17">
-        <v>10.08161409474492</v>
+        <v>12.72820639677869</v>
       </c>
       <c r="L17">
-        <v>11.34642384011089</v>
+        <v>7.760283590506131</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.63671936489001</v>
+        <v>12.31660290917818</v>
       </c>
       <c r="O17">
-        <v>24.7748673258741</v>
+        <v>15.52314055531818</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.30099889738637</v>
+        <v>16.31588929248539</v>
       </c>
       <c r="C18">
-        <v>10.40154662369271</v>
+        <v>7.28373635708935</v>
       </c>
       <c r="D18">
-        <v>9.710639109830762</v>
+        <v>7.298519983934379</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.21382078376649</v>
+        <v>22.29263206989898</v>
       </c>
       <c r="G18">
-        <v>34.49901111869534</v>
+        <v>24.44941560409021</v>
       </c>
       <c r="H18">
-        <v>15.78989300526816</v>
+        <v>9.345255371140974</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.70556026801934</v>
+        <v>6.114402481935302</v>
       </c>
       <c r="K18">
-        <v>10.038445029882</v>
+        <v>12.5870482924091</v>
       </c>
       <c r="L18">
-        <v>11.34296152411229</v>
+        <v>7.716666709892045</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.64938133853914</v>
+        <v>12.36065339222844</v>
       </c>
       <c r="O18">
-        <v>24.7894801791588</v>
+        <v>15.5202929056426</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.2811688604011</v>
+        <v>16.24518161378939</v>
       </c>
       <c r="C19">
-        <v>10.40260284803135</v>
+        <v>7.286110270224009</v>
       </c>
       <c r="D19">
-        <v>9.708415891973848</v>
+        <v>7.280356233865966</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.21782634158833</v>
+        <v>22.27333918933377</v>
       </c>
       <c r="G19">
-        <v>34.50389972208903</v>
+        <v>24.4251149908988</v>
       </c>
       <c r="H19">
-        <v>15.79307055954072</v>
+        <v>9.348904709697772</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.70722151517261</v>
+        <v>6.117173785739932</v>
       </c>
       <c r="K19">
-        <v>10.02380386961143</v>
+        <v>12.53890005866944</v>
       </c>
       <c r="L19">
-        <v>11.34181246819152</v>
+        <v>7.701891898826868</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.65369529526967</v>
+        <v>12.37560712361592</v>
       </c>
       <c r="O19">
-        <v>24.79449896379314</v>
+        <v>15.51954396555467</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.37031755417212</v>
+        <v>16.56114970400877</v>
       </c>
       <c r="C20">
-        <v>10.39789278011861</v>
+        <v>7.275520468677904</v>
       </c>
       <c r="D20">
-        <v>9.718510246706002</v>
+        <v>7.361928175793288</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.20023015527463</v>
+        <v>22.36126325928222</v>
       </c>
       <c r="G20">
-        <v>34.48246244070513</v>
+        <v>24.53608963270375</v>
       </c>
       <c r="H20">
-        <v>15.77890841691269</v>
+        <v>9.332854974272808</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.69980796245334</v>
+        <v>6.104836900431017</v>
       </c>
       <c r="K20">
-        <v>10.08959158368989</v>
+        <v>12.75416317030892</v>
       </c>
       <c r="L20">
-        <v>11.34707565121125</v>
+        <v>7.768352520350236</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.63438865491925</v>
+        <v>12.30846855792962</v>
       </c>
       <c r="O20">
-        <v>24.77219660229762</v>
+        <v>15.5237704862659</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.66802710281899</v>
+        <v>17.58402141927897</v>
       </c>
       <c r="C21">
-        <v>10.3828194564558</v>
+        <v>7.241580244925521</v>
       </c>
       <c r="D21">
-        <v>9.753975334927659</v>
+        <v>7.632853240295471</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.1486227787993</v>
+        <v>22.67615552443909</v>
       </c>
       <c r="G21">
-        <v>34.42028279410331</v>
+        <v>24.93759760030482</v>
       </c>
       <c r="H21">
-        <v>15.73372538919382</v>
+        <v>9.285624568079829</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.67598696198822</v>
+        <v>6.065768755599755</v>
       </c>
       <c r="K21">
-        <v>10.30870428658529</v>
+        <v>13.45275006155462</v>
       </c>
       <c r="L21">
-        <v>11.36636403724605</v>
+        <v>7.990991959872167</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.57138307451305</v>
+        <v>12.08553218036632</v>
       </c>
       <c r="O21">
-        <v>24.70221369448371</v>
+        <v>15.5533439375817</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.86092838331329</v>
+        <v>18.22388666430945</v>
       </c>
       <c r="C22">
-        <v>10.37352651190732</v>
+        <v>7.220634968911477</v>
       </c>
       <c r="D22">
-        <v>9.778284934689907</v>
+        <v>7.807321006583646</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.1204946935454</v>
+        <v>22.89664888188927</v>
       </c>
       <c r="G22">
-        <v>34.38699664912538</v>
+        <v>25.22169834056336</v>
       </c>
       <c r="H22">
-        <v>15.70598276294812</v>
+        <v>9.259960557297783</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.6612269844996</v>
+        <v>6.042051180289945</v>
       </c>
       <c r="K22">
-        <v>10.45024864086581</v>
+        <v>13.89094324582186</v>
       </c>
       <c r="L22">
-        <v>11.38015306248598</v>
+        <v>8.135806211416414</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.53158805880459</v>
+        <v>11.94171042134172</v>
       </c>
       <c r="O22">
-        <v>24.66016763577375</v>
+        <v>15.58459941468849</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.75814579681692</v>
+        <v>17.88498412072688</v>
       </c>
       <c r="C23">
-        <v>10.37843537260386</v>
+        <v>7.231699757025746</v>
       </c>
       <c r="D23">
-        <v>9.765208502925869</v>
+        <v>7.714457215745707</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.13499477178092</v>
+        <v>22.77761278106758</v>
       </c>
       <c r="G23">
-        <v>34.40408865044542</v>
+        <v>25.06806380012206</v>
       </c>
       <c r="H23">
-        <v>15.72062610356375</v>
+        <v>9.273167708302983</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.66903082709264</v>
+        <v>6.054540883669558</v>
       </c>
       <c r="K23">
-        <v>10.37486950540855</v>
+        <v>13.65875086988996</v>
       </c>
       <c r="L23">
-        <v>11.37268622608408</v>
+        <v>8.058592020672394</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.55270120720623</v>
+        <v>12.01830451855345</v>
       </c>
       <c r="O23">
-        <v>24.68227045226114</v>
+        <v>15.56679634478161</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.3654279542607</v>
+        <v>16.54394456045867</v>
       </c>
       <c r="C24">
-        <v>10.39814860084742</v>
+        <v>7.276095875067991</v>
       </c>
       <c r="D24">
-        <v>9.717950024979114</v>
+        <v>7.35745978294345</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.20116819134583</v>
+        <v>22.35636209497806</v>
       </c>
       <c r="G24">
-        <v>34.48360266683223</v>
+        <v>24.52988861203555</v>
       </c>
       <c r="H24">
-        <v>15.77967710194952</v>
+        <v>9.333711697605333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.70021098263096</v>
+        <v>6.105505520938643</v>
       </c>
       <c r="K24">
-        <v>10.08598549396738</v>
+        <v>12.74243473985665</v>
       </c>
       <c r="L24">
-        <v>11.3467805524419</v>
+        <v>7.764704763483923</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.6354418651452</v>
+        <v>12.31214533701232</v>
       </c>
       <c r="O24">
-        <v>24.77340272624431</v>
+        <v>15.52348175333315</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.93672030543415</v>
+        <v>15.00903011245586</v>
       </c>
       <c r="C25">
-        <v>10.42182290029675</v>
+        <v>7.329203591319746</v>
       </c>
       <c r="D25">
-        <v>9.671981001998342</v>
+        <v>6.962945050270064</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.29658411621249</v>
+        <v>21.96383756542607</v>
       </c>
       <c r="G25">
-        <v>34.60084460505751</v>
+        <v>24.04013423636719</v>
       </c>
       <c r="H25">
-        <v>15.85105590651946</v>
+        <v>9.41999409746767</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.73732855743109</v>
+        <v>6.16801981165988</v>
       </c>
       <c r="K25">
-        <v>9.768733539632956</v>
+        <v>11.67515587915109</v>
       </c>
       <c r="L25">
-        <v>11.32399914561757</v>
+        <v>7.446071990707289</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.73066104350883</v>
+        <v>12.63773214736347</v>
       </c>
       <c r="O25">
-        <v>24.88753706033181</v>
+        <v>15.52491674791379</v>
       </c>
     </row>
   </sheetData>
